--- a/document/Test/BugList/JobPackageControllerBugList.xlsx
+++ b/document/Test/BugList/JobPackageControllerBugList.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="14295" windowHeight="5130"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="14295" windowHeight="5130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="JobPackageRequestList" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Choose" sheetId="2" r:id="rId2"/>
+    <sheet name="Invoice" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nút xóa không dùng được.</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Chỗ này hiện có đúng?</t>
+  </si>
+  <si>
+    <t>Không sd được</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nên có thông báo sau khi nhấn nút thanh toán. </t>
+  </si>
+  <si>
+    <t>Câu này nên đưa vào đoạn thông báo lệnh đã success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Những chỗ như thế này nên có dãi phân biệt </t>
+  </si>
+  <si>
+    <t>với package khác</t>
   </si>
 </sst>
 </file>
@@ -873,6 +888,414 @@
         <a:xfrm flipV="1">
           <a:off x="8706971" y="8068235"/>
           <a:ext cx="963705" cy="431427"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>427707</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8962107" cy="5038725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="1038225"/>
+          <a:ext cx="180975" cy="2962275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>115888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="2019300"/>
+          <a:ext cx="5715000" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88577</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8013377" cy="4505325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="3333750"/>
+          <a:ext cx="419100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="3448050"/>
+          <a:ext cx="3657600" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="2933700"/>
+          <a:ext cx="2847975" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="3033713"/>
+          <a:ext cx="4000500" cy="33337"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1188,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="Q8:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
@@ -1248,24 +1671,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="P11:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="16:16">
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="16:16">
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="O17:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17" spans="15:15">
+      <c r="O17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15">
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/Test/BugList/JobPackageControllerBugList.xlsx
+++ b/document/Test/BugList/JobPackageControllerBugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="14295" windowHeight="5130" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="14295" windowHeight="5130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JobPackageRequestList" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nút xóa không dùng được.</t>
   </si>
@@ -59,15 +59,31 @@
   <si>
     <t>với package khác</t>
   </si>
+  <si>
+    <t>28/7</t>
+  </si>
+  <si>
+    <t>trang này của staff đúng ko? Nhưng recuiter lại vào đc.</t>
+  </si>
+  <si>
+    <t>Trước khi xóa nên có xác nhận tránh xóa nhầm.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,6 +905,306 @@
         <a:xfrm flipV="1">
           <a:off x="8706971" y="8068235"/>
           <a:ext cx="963705" cy="431427"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123263</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5569322" y="11486029"/>
+          <a:ext cx="851647" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421044</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="10791264"/>
+          <a:ext cx="9497809" cy="5378823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="11463618"/>
+          <a:ext cx="728382" cy="313764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6869206" y="11586882"/>
+          <a:ext cx="2823882" cy="168089"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>186018</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5508812" y="13308106"/>
+          <a:ext cx="728382" cy="313764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6203576" y="13453782"/>
+          <a:ext cx="3467100" cy="172571"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1609,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="Q8:R43"/>
+  <dimension ref="A8:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1624,7 +1941,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="10" spans="17:18">
-      <c r="Q10" t="s">
+      <c r="Q10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1663,9 +1980,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="Q62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17">
+      <c r="Q72" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1673,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="P11:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -1699,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="O17:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/document/Test/BugList/JobPackageControllerBugList.xlsx
+++ b/document/Test/BugList/JobPackageControllerBugList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="14295" windowHeight="5130" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="14295" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="JobPackageRequestList" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nút xóa không dùng được.</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Trước khi xóa nên có xác nhận tránh xóa nhầm.</t>
+  </si>
+  <si>
+    <t>Chỗ này để link để làm gì?</t>
   </si>
 </sst>
 </file>
@@ -1205,6 +1208,106 @@
         <a:xfrm>
           <a:off x="6203576" y="13453782"/>
           <a:ext cx="3467100" cy="172571"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>73958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1452281" y="13285694"/>
+          <a:ext cx="2279277" cy="313764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85165</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3715871" y="13565841"/>
+          <a:ext cx="5954805" cy="497541"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1926,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A8:R72"/>
+  <dimension ref="A8:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1995,6 +2098,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="74" spans="17:17">
+      <c r="Q74" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -2032,7 +2140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="O17:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
